--- a/Copy of DSA_SHEET.xlsx
+++ b/Copy of DSA_SHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EB4458-06D9-498A-BFDF-CCCA995C640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C1691B-2259-4C8B-BD4A-C32BA04C182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{868B7353-E4C7-47E2-B680-C739F756458F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>Serial</t>
   </si>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7199B84-502C-4691-A17D-7AA897C85D17}">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1276,7 +1276,9 @@
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="18" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1">
       <c r="A12" s="4">
